--- a/몬스터 분류표.xlsx
+++ b/몬스터 분류표.xlsx
@@ -14,6 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$13</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$C$3:$F$3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,14 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>베스크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +163,68 @@
   </si>
   <si>
     <t>slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>горо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>х+ramo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적 온,습도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰다듬기
+움켜쥐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-10, -7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰다듬기:스트레스 5감소
+방어 스텟n 증가
+찌르기: 스트레스 5증가 공격 스텟n 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +246,13 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,11 +278,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,6 +689,49 @@
         <a:xfrm>
           <a:off x="11144250" y="406400"/>
           <a:ext cx="933450" cy="507936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>826407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="92487"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16008350" y="304800"/>
+          <a:ext cx="755650" cy="718457"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -903,52 +1017,55 @@
     <col min="1" max="16384" width="20.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="81.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="81.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -971,8 +1088,11 @@
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1003,8 +1123,11 @@
       <c r="J4" s="1">
         <v>3</v>
       </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1196,33 +1319,55 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="84.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
+      <c r="K13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
